--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Desktop\PROGRAMMING\Projects\ylab_university\1homework\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -187,14 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -208,6 +207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,21 +432,21 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="1">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -452,50 +455,50 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="4">
-        <v>182.99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="4">
@@ -503,15 +506,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4">
@@ -519,29 +522,29 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1">
@@ -549,15 +552,15 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="3">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="1">
@@ -565,15 +568,15 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1">
@@ -581,7 +584,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -590,34 +593,34 @@
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="1">
@@ -625,15 +628,15 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="1">
@@ -641,15 +644,15 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1">
@@ -657,29 +660,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="3">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="1">
@@ -687,15 +690,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="3">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="1">
@@ -703,15 +706,15 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="3">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="1">
@@ -1702,5 +1705,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>Меню</t>
-  </si>
-  <si>
     <t>Основное меню</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
+  </si>
+  <si>
+    <t>This is good</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
@@ -480,10 +480,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="4">
         <v>123</v>
@@ -496,10 +496,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4">
         <v>215.36</v>
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="4">
         <v>265.57</v>
@@ -527,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="2"/>
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>166.47</v>
@@ -558,10 +558,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>168.25</v>
@@ -574,10 +574,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>132.88</v>
@@ -588,10 +588,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -603,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
@@ -618,10 +618,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F12" s="1">
         <v>2700.79</v>
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>3100.33</v>
@@ -650,10 +650,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>1850.42</v>
@@ -665,10 +665,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
@@ -680,10 +680,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F16" s="1">
         <v>420.78</v>
@@ -696,10 +696,10 @@
         <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="F17" s="1">
         <v>440.11</v>
@@ -712,10 +712,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="1">
         <v>520.08000000000004</v>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -131,7 +131,7 @@
     <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
   <si>
-    <t>This is good</t>
+    <t>who is going to die</t>
   </si>
 </sst>
 </file>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -131,7 +131,7 @@
     <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
   <si>
-    <t>who is going to die</t>
+    <t>Меню</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="4">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -556,7 +556,7 @@
     <col min="6" max="6" style="15" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -570,7 +570,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="5">
         <v>3</v>
@@ -584,7 +584,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5">
@@ -600,7 +600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5">
@@ -616,7 +616,7 @@
         <v>215.36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
@@ -632,7 +632,7 @@
         <v>265.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -646,7 +646,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -662,7 +662,7 @@
         <v>166.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
@@ -678,7 +678,7 @@
         <v>168.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
@@ -694,7 +694,7 @@
         <v>132.88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
         <v>5</v>
@@ -722,7 +722,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5">
@@ -738,7 +738,7 @@
         <v>2700.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5">
@@ -754,7 +754,7 @@
         <v>3100.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5">
@@ -770,7 +770,7 @@
         <v>1850.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
         <v>6</v>
@@ -784,7 +784,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5">
@@ -800,7 +800,7 @@
         <v>420.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5">
@@ -816,7 +816,7 @@
         <v>440.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="45.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5">
@@ -832,7 +832,7 @@
         <v>520.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -840,7 +840,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -848,7 +848,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -856,7 +856,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -864,7 +864,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -872,7 +872,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -880,7 +880,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -888,7 +888,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -896,7 +896,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -904,7 +904,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -912,7 +912,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -920,7 +920,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -928,7 +928,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -936,7 +936,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
